--- a/ekaterinagorb/evidence.xlsx
+++ b/ekaterinagorb/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\1- 30. Ekag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\###001- 30. Ekag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -57,27 +57,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -172,6 +157,159 @@
   </si>
   <si>
     <t>92545D1800D8EF453DBD936E9BD4F92B4499838A1E094B2FFB8A259DDB91BD97</t>
+  </si>
+  <si>
+    <t>ibc/0137CB6EE5F69BDCDC6DF327D336C63A9D19085F619DF7F6A05F7E341B91A77D</t>
+  </si>
+  <si>
+    <t>image7</t>
+  </si>
+  <si>
+    <t>ibc/ABAACCDA7715E8DE106249F4B3579BEF36A9B0513BD62EB512F14504233920C9</t>
+  </si>
+  <si>
+    <t>image8</t>
+  </si>
+  <si>
+    <t>ibc/5CF3ACBD9E130C1A3B9D52D60479929A933BBEDDCF545676CBB8B9E49DD74C3A</t>
+  </si>
+  <si>
+    <t>image9</t>
+  </si>
+  <si>
+    <t>ibc/1FFF830A8E820DAB928FEE83A841DADCE8E29F244BA06291FB58D7A5B153227F</t>
+  </si>
+  <si>
+    <t>image10</t>
+  </si>
+  <si>
+    <t>ibc/4A4F37E608669492F3A05D8D2A3C8F3ACE95247669F3EF21A7691848978C6909</t>
+  </si>
+  <si>
+    <t>image11</t>
+  </si>
+  <si>
+    <t>ibc/755B472812D0968BCD9E0D214789F8F593F8615B87D2C8B461DBA9D5F677CBC9</t>
+  </si>
+  <si>
+    <t>image12</t>
+  </si>
+  <si>
+    <t>9666398405D091E46953554A51C0BE6593871829F34138E16C36EC27723CD84E</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>0F10C42524AAFDBFB9F287C8597BE2EAB312787E7B65B6398C6EC10BFA145A94</t>
+  </si>
+  <si>
+    <t>CFD08CA394073807BFF4A91E8945227C7DBE2D7472068F49F990ABE79505173E</t>
+  </si>
+  <si>
+    <t>D1CDB6D18334CD23848F08BB73C2B83D0082D1F1BCAE2F4BC24B875A9C8093AF</t>
+  </si>
+  <si>
+    <t>17ABEF258857B766FD1D9CA4E3F7EED58B596CD56EC268B8E83895536EB0F413</t>
+  </si>
+  <si>
+    <t>DDF68FDE701D22B9DC783A157C6CF7EB3C30728D44F40C0041EFA60807CBAD76</t>
+  </si>
+  <si>
+    <t>CC40BF4CEBDF3F52B68F1624282F6A22EDEA7A84E82D82AEE2E9EB97CD0C80A9</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>069A18B82C3E17E9CB2F579C8C949BD45AA4AD73BC46C8E16ADAF35953D2EC91</t>
+  </si>
+  <si>
+    <t>8B182591112F608A5F9428EA1355D30729614EB5159087FFE0ECA7FD1D6258CA</t>
+  </si>
+  <si>
+    <t>DE6AB19B552039914A540B70BE8587C201202965471CD8C01F935F1056374FB8</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>90AF8097C685E26031EE930E6B7631782330E2486734EFB640ABF71DDE2FF6A5</t>
+  </si>
+  <si>
+    <t>20DD23D79643CF3ECD0AC9A92DA7F1508C0048C5221C40D7F4C82B97C5BAB998</t>
+  </si>
+  <si>
+    <t>EC1E1BEEBBD7D4866DF3EB6806D8D8B6089E14AB09042136931BB3F83A530B6D</t>
+  </si>
+  <si>
+    <t>FF6291EB17F93137483815C84BC2DAF318F326DCD7A91699BEA3E11D68967A17</t>
+  </si>
+  <si>
+    <t>EAF8913C2CD1B73D592FC925B00477020D070800DD593650CEDE075B9C0FC2C1</t>
+  </si>
+  <si>
+    <t>2EA6E51479745F53EA9D56295E3B718F9136D448CDEBB5E4EC57BC26139ECB84</t>
+  </si>
+  <si>
+    <t>5B2E35278C5F0598C35F0D7176A57EA96ABAFDCEBBB1BA77F63E189F51CA9F34</t>
+  </si>
+  <si>
+    <t>601544850DCAF605EFDB414972D499AE7636684FCC189198D879BA77BC464706</t>
+  </si>
+  <si>
+    <t>A167DE18B81FC4E0A62CA8CDE6BC2D0C7A8E325E82D62C1C07DD50497043F0E0</t>
+  </si>
+  <si>
+    <t>E3EA4ED0AF063B2946AC2BE833459A82E4A2ED2696C0360F17878121DE095F2E</t>
+  </si>
+  <si>
+    <t>38E6ECC72242D73C79EBDA87EEE4646CD271117ACAECA9D7DAC9C25C6709D313</t>
+  </si>
+  <si>
+    <t>9738A4E7305819E0E7C5EA29803F878FDDCA4A9D52500583B3F84711A9B9A3FF</t>
+  </si>
+  <si>
+    <t>3B1E89A26548E56B92352D868C767F18E039216952047546A3860A0F15C6FCB6</t>
+  </si>
+  <si>
+    <t>5D044A2A005ED84FFEA978FFAA8338638E442A2EA09B4EAFE4BA1AB4267DE64C</t>
+  </si>
+  <si>
+    <t>B9260F831D33605505273889D33A4DA059F594CCC42F9210532E2780F1B8ED48</t>
+  </si>
+  <si>
+    <t>E9ED84B7AD962B4FFBCC53950B5C4CBEF0B9EC9C42DA9D2D722BBDF8BEF26395</t>
+  </si>
+  <si>
+    <t>DEA97B1045895B0B022D10BCDC89794287D7F61DE68C2152DD68C29D82CF5148</t>
+  </si>
+  <si>
+    <t>F20EA2074C3A8BFC01F9E5DD2C3EC1CB9BDA907B771AC798D05386B6C0ACA07C</t>
+  </si>
+  <si>
+    <t>27F2C0C8121C9592B23548B7A7BEE22D0D9AF43D752D73B99EC92BAFF5922639</t>
+  </si>
+  <si>
+    <t>BEA3CF8823359ACEF2E4C9AAAD2373268985499AFF19ACA6AA2C1AA22DC1B36A</t>
+  </si>
+  <si>
+    <t>76A956C2D10D939D61A3CD63211ED9CCDA3AFCB6B4A1C75FD453B3380CBDFDAC</t>
+  </si>
+  <si>
+    <t>23662DF5658E658D512DED7DB2024595DC1EB2AFEBC5C559DB7BFEEB400FB84C</t>
+  </si>
+  <si>
+    <t>4E76516C2A9471468E5B248701C5C24DA88B562B32A3920C46914E7F8D4AD90B</t>
+  </si>
+  <si>
+    <t>302ACAD09C5BF9234C515B36E6696E666843E82A0AE415FEA12C89875F382C51</t>
+  </si>
+  <si>
+    <t>911CF5F99A1EE12EBA0A2FDA5C2E48D654D3D2EEA7083FED8BF94ABD24C0BC9D</t>
+  </si>
+  <si>
+    <t>38E6582C52144FFFE2F71C4D99654B699E74DF7C4D09E28F80D6DDE7215DB652</t>
   </si>
 </sst>
 </file>
@@ -569,7 +707,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,55 +724,55 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -648,7 +786,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -658,18 +798,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +824,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -694,18 +836,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +862,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -730,18 +874,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +900,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -766,18 +912,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -790,9 +936,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -810,23 +958,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -838,9 +998,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -858,23 +1020,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,9 +1060,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -906,23 +1082,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -934,9 +1122,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -954,23 +1144,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,9 +1184,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1002,23 +1206,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,9 +1246,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1050,23 +1268,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1094,15 +1324,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1116,9 +1346,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1136,23 +1368,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,9 +1424,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1184,23 +1446,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1365,43 +1655,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1443,16 +1733,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1483,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1494,16 +1784,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1534,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1545,16 +1835,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1586,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1597,16 +1887,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,7 +1917,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1637,22 +1929,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1663,7 +1956,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1673,18 +1968,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
